--- a/word_dicio_aberto_dipht_left_palatal_with_syllabification.xlsx
+++ b/word_dicio_aberto_dipht_left_palatal_with_syllabification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\el3gos\Desktop\new-phono\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635634B3-697C-4454-B1B3-ABB422C95731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E219C82-7547-477E-B02E-0FF7405D40DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,7 +361,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{79AB11DB-E3D6-4824-A8AA-2FA90853A82B}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{98B4FC2D-282F-4601-9904-3765223A76F9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -813,13 +813,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
